--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_287.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_287.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,583 +488,604 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[('0:01:24', '0:01:30.840000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(50.16, 52.82)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[('0:00:00.780000', '0:00:09.740000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>[('0:00:45.460000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_95</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1229096989966555</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['E:min', 'F#:min', 'B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06)]</t>
+          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:39.979523', '0:00:47.885918')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.560000', '0:00:11.220000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[('0:01:06.980000', '0:01:23.840000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.420000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>[['C:7', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(88.48, 100.38)]</t>
+          <t>[('0:00:39.386636', '0:00:52.146870')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:05.420000', '0:00:12.580000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(108.28, 120.52)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:17.680000', '0:01:26.540000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.480000', '0:00:25.940000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:53.140000', '0:01:54.880000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -1068,137 +1094,94 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06)]</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(46.06, 55.66)]</t>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(19.14, 24.78)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(68.82, 84.54)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
